--- a/Code/Results/Cases/Case_2_191/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_191/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.566280554437697</v>
+        <v>1.57873595852908</v>
       </c>
       <c r="C2">
-        <v>0.9603545033953935</v>
+        <v>0.3354286270085822</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03858953657726083</v>
+        <v>0.151771830841156</v>
       </c>
       <c r="F2">
-        <v>6.562664230049506</v>
+        <v>4.253010948229331</v>
       </c>
       <c r="G2">
-        <v>0.0007788021264499026</v>
+        <v>0.002490816268178767</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6350182559194764</v>
+        <v>0.2876175167626656</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.0577733097075</v>
+        <v>1.4637037638214</v>
       </c>
       <c r="C3">
-        <v>0.8193581979814724</v>
+        <v>0.303023540219499</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02970392585909742</v>
+        <v>0.1566965069044493</v>
       </c>
       <c r="F3">
-        <v>5.746863817778518</v>
+        <v>4.072601711761536</v>
       </c>
       <c r="G3">
-        <v>0.0007915507656517053</v>
+        <v>0.002497859305758434</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5520399065799637</v>
+        <v>0.2676841926982121</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.754596688859067</v>
+        <v>1.394403658732756</v>
       </c>
       <c r="C4">
-        <v>0.7353799502126606</v>
+        <v>0.2834058188777817</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02493281342712095</v>
+        <v>0.1599641161839074</v>
       </c>
       <c r="F4">
-        <v>5.264103704357922</v>
+        <v>3.963759742175597</v>
       </c>
       <c r="G4">
-        <v>0.0007994962677459457</v>
+        <v>0.002502401404681309</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5029679705032208</v>
+        <v>0.2555252067487288</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.632971779204979</v>
+        <v>1.366493758243053</v>
       </c>
       <c r="C5">
-        <v>0.7017025710869405</v>
+        <v>0.2754803192025008</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02313413786910345</v>
+        <v>0.1613566576718988</v>
       </c>
       <c r="F5">
-        <v>5.071238367034994</v>
+        <v>3.919879141737908</v>
       </c>
       <c r="G5">
-        <v>0.0008027689134565919</v>
+        <v>0.00250430730432379</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4833654048912024</v>
+        <v>0.2505889248810291</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.612882673783361</v>
+        <v>1.361879183926533</v>
       </c>
       <c r="C6">
-        <v>0.6961404706646874</v>
+        <v>0.2741684186519819</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02284356302312318</v>
+        <v>0.161591560111864</v>
       </c>
       <c r="F6">
-        <v>5.039427839842091</v>
+        <v>3.912621046881412</v>
       </c>
       <c r="G6">
-        <v>0.0008033145739280607</v>
+        <v>0.002504627103344691</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4801321794694644</v>
+        <v>0.2497703375623246</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.752949064290192</v>
+        <v>1.394025923277411</v>
       </c>
       <c r="C7">
-        <v>0.7349236928887706</v>
+        <v>0.2832986556259414</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02490799849226555</v>
+        <v>0.159982650098982</v>
       </c>
       <c r="F7">
-        <v>5.261487870137671</v>
+        <v>3.963166051985581</v>
       </c>
       <c r="G7">
-        <v>0.0007995402567169581</v>
+        <v>0.002502426885561594</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5027021003796506</v>
+        <v>0.255458561041749</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.388841004137134</v>
+        <v>1.538794301553821</v>
       </c>
       <c r="C8">
-        <v>0.9111307708636502</v>
+        <v>0.3241966108668635</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03536627729471498</v>
+        <v>0.153419036962628</v>
       </c>
       <c r="F8">
-        <v>6.277158582510793</v>
+        <v>4.190397979588312</v>
       </c>
       <c r="G8">
-        <v>0.0007831767417448778</v>
+        <v>0.002493199673128926</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6059677267639927</v>
+        <v>0.2807269267806447</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.726578114807126</v>
+        <v>1.833440836133946</v>
       </c>
       <c r="C9">
-        <v>1.283078137995631</v>
+        <v>0.4066769682765425</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06278418707718814</v>
+        <v>0.1424986742728045</v>
       </c>
       <c r="F9">
-        <v>8.450432425994535</v>
+        <v>4.651880069963624</v>
       </c>
       <c r="G9">
-        <v>0.0007517465255463083</v>
+        <v>0.002476821595405415</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8275275309316896</v>
+        <v>0.330986641918372</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.797290805255273</v>
+        <v>2.056785614688124</v>
       </c>
       <c r="C10">
-        <v>1.582527001014341</v>
+        <v>0.4687631005024855</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08979233280583898</v>
+        <v>0.135687563439074</v>
       </c>
       <c r="F10">
-        <v>10.22257923266898</v>
+        <v>5.001439641024945</v>
       </c>
       <c r="G10">
-        <v>0.0007285843017995422</v>
+        <v>0.00246582029711114</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.009112996915292</v>
+        <v>0.3684485245056521</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.313125414459421</v>
+        <v>2.159953252807441</v>
       </c>
       <c r="C11">
-        <v>1.727463455009968</v>
+        <v>0.4973530836620625</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1044062467337703</v>
+        <v>0.1328573576333909</v>
       </c>
       <c r="F11">
-        <v>11.08621809896908</v>
+        <v>5.162929580383945</v>
       </c>
       <c r="G11">
-        <v>0.000717892424507219</v>
+        <v>0.002461036366824866</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.097958869059539</v>
+        <v>0.3856303133860024</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.513660099552965</v>
+        <v>2.199250964670512</v>
       </c>
       <c r="C12">
-        <v>1.783937404588585</v>
+        <v>0.5082309693091247</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1103722011255854</v>
+        <v>0.1318246491685393</v>
       </c>
       <c r="F12">
-        <v>11.42367118283272</v>
+        <v>5.224451982200833</v>
       </c>
       <c r="G12">
-        <v>0.0007138060028476476</v>
+        <v>0.002459256294719139</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.132740229306108</v>
+        <v>0.3921586130541073</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.470220159938322</v>
+        <v>2.190777171755826</v>
       </c>
       <c r="C13">
-        <v>1.771697681537034</v>
+        <v>0.5058859060128498</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1090662379400662</v>
+        <v>0.1320453180642396</v>
       </c>
       <c r="F13">
-        <v>11.35049110514376</v>
+        <v>5.211185365516997</v>
       </c>
       <c r="G13">
-        <v>0.0007146880482018453</v>
+        <v>0.002459638267683823</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.125194329424147</v>
+        <v>0.3907516231178647</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.329512233150865</v>
+        <v>2.163181652901869</v>
       </c>
       <c r="C14">
-        <v>1.732075489239946</v>
+        <v>0.4982469726407999</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1048877473844776</v>
+        <v>0.1327716111858948</v>
       </c>
       <c r="F14">
-        <v>11.11375754292322</v>
+        <v>5.167983575652329</v>
       </c>
       <c r="G14">
-        <v>0.0007175570884853697</v>
+        <v>0.00246088928930326</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.100795951593369</v>
+        <v>0.386166950789061</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.244037941473721</v>
+        <v>2.146308753543678</v>
       </c>
       <c r="C15">
-        <v>1.708024294335814</v>
+        <v>0.4935746586553478</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1023879509269641</v>
+        <v>0.1332215833994219</v>
       </c>
       <c r="F15">
-        <v>10.97018076308336</v>
+        <v>5.141569793169367</v>
       </c>
       <c r="G15">
-        <v>0.00071930903418862</v>
+        <v>0.002461659671458791</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.086007575373969</v>
+        <v>0.3833616154739445</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.764243455674375</v>
+        <v>2.050075325409296</v>
       </c>
       <c r="C16">
-        <v>1.573257236575614</v>
+        <v>0.466901791995042</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08889179013491244</v>
+        <v>0.1358779600944544</v>
       </c>
       <c r="F16">
-        <v>10.16746609935143</v>
+        <v>4.990936855613626</v>
       </c>
       <c r="G16">
-        <v>0.0007292786941856198</v>
+        <v>0.002466137358033135</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.003451407420499</v>
+        <v>0.3673286258045607</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.477948039008652</v>
+        <v>1.991444108048711</v>
       </c>
       <c r="C17">
-        <v>1.493027451827004</v>
+        <v>0.4506287888792144</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08126916704548037</v>
+        <v>0.1375765780340537</v>
       </c>
       <c r="F17">
-        <v>9.691110049036183</v>
+        <v>4.899171812083154</v>
       </c>
       <c r="G17">
-        <v>0.0007353452499685442</v>
+        <v>0.002468940618267525</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9545564493147367</v>
+        <v>0.3575300620856865</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.315908777920072</v>
+        <v>1.95786816299551</v>
       </c>
       <c r="C18">
-        <v>1.44767731267882</v>
+        <v>0.4413015197220034</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07709672474984686</v>
+        <v>0.1385787941106926</v>
       </c>
       <c r="F18">
-        <v>9.422377193809581</v>
+        <v>4.846622954160694</v>
       </c>
       <c r="G18">
-        <v>0.0007388210650108403</v>
+        <v>0.002470573758135278</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9270034314785391</v>
+        <v>0.3519072751802241</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.261468609241035</v>
+        <v>1.946525052434652</v>
       </c>
       <c r="C19">
-        <v>1.432450349492683</v>
+        <v>0.4381490053089578</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07571788296825588</v>
+        <v>0.1389224442939057</v>
       </c>
       <c r="F19">
-        <v>9.332234589981113</v>
+        <v>4.828870233386766</v>
       </c>
       <c r="G19">
-        <v>0.0007399960026615639</v>
+        <v>0.002471130286987737</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9177660316415484</v>
+        <v>0.3500056905572677</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.508145588197067</v>
+        <v>1.997670232640587</v>
       </c>
       <c r="C20">
-        <v>1.501483513511232</v>
+        <v>0.4523576993031497</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08205806412041738</v>
+        <v>0.1373931442027754</v>
       </c>
       <c r="F20">
-        <v>9.74126132961112</v>
+        <v>4.908916249507229</v>
       </c>
       <c r="G20">
-        <v>0.0007347009512985725</v>
+        <v>0.002468640057435412</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9597008601857908</v>
+        <v>0.3585717686587202</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.370690588407854</v>
+        <v>2.171280832693867</v>
       </c>
       <c r="C21">
-        <v>1.743667209710168</v>
+        <v>0.5004893021941825</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1061024226715901</v>
+        <v>0.1325572182949486</v>
       </c>
       <c r="F21">
-        <v>11.18298937421747</v>
+        <v>5.180662843092591</v>
       </c>
       <c r="G21">
-        <v>0.0007167155454363977</v>
+        <v>0.002460520980872771</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.107929242993464</v>
+        <v>0.3875129707836606</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.965434644815161</v>
+        <v>2.286090600868647</v>
       </c>
       <c r="C22">
-        <v>1.911442732711521</v>
+        <v>0.5322469400640557</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1244040006163196</v>
+        <v>0.1296243778688471</v>
       </c>
       <c r="F22">
-        <v>12.18738590946782</v>
+        <v>5.360426346759709</v>
       </c>
       <c r="G22">
-        <v>0.000704731348456227</v>
+        <v>0.002455398185681445</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.211597720898453</v>
+        <v>0.4065563822430533</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.644740662784329</v>
+        <v>2.224689674028355</v>
       </c>
       <c r="C23">
-        <v>1.820892355082322</v>
+        <v>0.5152692125128624</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1143587731504034</v>
+        <v>0.1311686972284765</v>
       </c>
       <c r="F23">
-        <v>11.6447634966554</v>
+        <v>5.264280719889143</v>
       </c>
       <c r="G23">
-        <v>0.0007111547407509302</v>
+        <v>0.002458115603369706</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.155548862029292</v>
+        <v>0.3963801898119641</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.494485391870512</v>
+        <v>1.994854991181228</v>
       </c>
       <c r="C24">
-        <v>1.497658138080112</v>
+        <v>0.4515759708842779</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08170075685639233</v>
+        <v>0.1374759947538475</v>
       </c>
       <c r="F24">
-        <v>9.718572108947114</v>
+        <v>4.904510142253798</v>
       </c>
       <c r="G24">
-        <v>0.0007349922748869414</v>
+        <v>0.002468775874018332</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9573733532118069</v>
+        <v>0.358100780427236</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.351996485366612</v>
+        <v>1.752548033529877</v>
       </c>
       <c r="C25">
-        <v>1.178713370290438</v>
+        <v>0.3841098247823993</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0543913814087631</v>
+        <v>0.145241762388034</v>
       </c>
       <c r="F25">
-        <v>7.837169825496943</v>
+        <v>4.525252178146701</v>
       </c>
       <c r="G25">
-        <v>0.0007602219099399323</v>
+        <v>0.002481070061226843</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.764895844205995</v>
+        <v>0.3173035326923639</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_191/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_191/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.57873595852908</v>
+        <v>3.566280554437924</v>
       </c>
       <c r="C2">
-        <v>0.3354286270085822</v>
+        <v>0.9603545033958483</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.151771830841156</v>
+        <v>0.0385895365773834</v>
       </c>
       <c r="F2">
-        <v>4.253010948229331</v>
+        <v>6.562664230049506</v>
       </c>
       <c r="G2">
-        <v>0.002490816268178767</v>
+        <v>0.0007788021264601408</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2876175167626656</v>
+        <v>0.635018255919519</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.4637037638214</v>
+        <v>3.057773309707159</v>
       </c>
       <c r="C3">
-        <v>0.303023540219499</v>
+        <v>0.8193581979814155</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1566965069044493</v>
+        <v>0.02970392585914183</v>
       </c>
       <c r="F3">
-        <v>4.072601711761536</v>
+        <v>5.746863817778546</v>
       </c>
       <c r="G3">
-        <v>0.002497859305758434</v>
+        <v>0.0007915507654211152</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2676841926982121</v>
+        <v>0.5520399065801485</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.394403658732756</v>
+        <v>2.754596688859237</v>
       </c>
       <c r="C4">
-        <v>0.2834058188777817</v>
+        <v>0.7353799502122911</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1599641161839074</v>
+        <v>0.02493281342713871</v>
       </c>
       <c r="F4">
-        <v>3.963759742175597</v>
+        <v>5.264103704357979</v>
       </c>
       <c r="G4">
-        <v>0.002502401404681309</v>
+        <v>0.0007994962677411177</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2555252067487288</v>
+        <v>0.5029679705033061</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.366493758243053</v>
+        <v>2.63297177920515</v>
       </c>
       <c r="C5">
-        <v>0.2754803192025008</v>
+        <v>0.701702571086912</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1613566576718988</v>
+        <v>0.02313413786908214</v>
       </c>
       <c r="F5">
-        <v>3.919879141737908</v>
+        <v>5.071238367034965</v>
       </c>
       <c r="G5">
-        <v>0.00250430730432379</v>
+        <v>0.0008027689134805085</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2505889248810291</v>
+        <v>0.4833654048912024</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.361879183926533</v>
+        <v>2.61288267378319</v>
       </c>
       <c r="C6">
-        <v>0.2741684186519819</v>
+        <v>0.6961404706647443</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.161591560111864</v>
+        <v>0.02284356302306101</v>
       </c>
       <c r="F6">
-        <v>3.912621046881412</v>
+        <v>5.039427839842091</v>
       </c>
       <c r="G6">
-        <v>0.002504627103344691</v>
+        <v>0.0008033145738554201</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2497703375623246</v>
+        <v>0.4801321794694502</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.394025923277411</v>
+        <v>2.752949064290021</v>
       </c>
       <c r="C7">
-        <v>0.2832986556259414</v>
+        <v>0.7349236928887706</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.159982650098982</v>
+        <v>0.02490799849231351</v>
       </c>
       <c r="F7">
-        <v>3.963166051985581</v>
+        <v>5.261487870137614</v>
       </c>
       <c r="G7">
-        <v>0.002502426885561594</v>
+        <v>0.0007995402567320566</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.255458561041749</v>
+        <v>0.5027021003798495</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.538794301553821</v>
+        <v>3.388841004137078</v>
       </c>
       <c r="C8">
-        <v>0.3241966108668635</v>
+        <v>0.9111307708628829</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.153419036962628</v>
+        <v>0.03536627729467057</v>
       </c>
       <c r="F8">
-        <v>4.190397979588312</v>
+        <v>6.277158582510708</v>
       </c>
       <c r="G8">
-        <v>0.002493199673128926</v>
+        <v>0.0007831767417689761</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2807269267806447</v>
+        <v>0.6059677267640353</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.833440836133946</v>
+        <v>4.726578114806784</v>
       </c>
       <c r="C9">
-        <v>0.4066769682765425</v>
+        <v>1.283078137995687</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1424986742728045</v>
+        <v>0.06278418707715261</v>
       </c>
       <c r="F9">
-        <v>4.651880069963624</v>
+        <v>8.45043242599445</v>
       </c>
       <c r="G9">
-        <v>0.002476821595405415</v>
+        <v>0.0007517465254548121</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.330986641918372</v>
+        <v>0.8275275309316754</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.056785614688124</v>
+        <v>5.797290805255955</v>
       </c>
       <c r="C10">
-        <v>0.4687631005024855</v>
+        <v>1.582527001014398</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.135687563439074</v>
+        <v>0.08979233280578569</v>
       </c>
       <c r="F10">
-        <v>5.001439641024945</v>
+        <v>10.22257923266901</v>
       </c>
       <c r="G10">
-        <v>0.00246582029711114</v>
+        <v>0.0007285843017978849</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3684485245056521</v>
+        <v>1.009112996915434</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.159953252807441</v>
+        <v>6.313125414459819</v>
       </c>
       <c r="C11">
-        <v>0.4973530836620625</v>
+        <v>1.727463455009911</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1328573576333909</v>
+        <v>0.1044062467336886</v>
       </c>
       <c r="F11">
-        <v>5.162929580383945</v>
+        <v>11.08621809896908</v>
       </c>
       <c r="G11">
-        <v>0.002461036366824866</v>
+        <v>0.000717892424263941</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3856303133860024</v>
+        <v>1.09795886905934</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.199250964670512</v>
+        <v>6.513660099553135</v>
       </c>
       <c r="C12">
-        <v>0.5082309693091247</v>
+        <v>1.783937404588983</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1318246491685393</v>
+        <v>0.1103722011255606</v>
       </c>
       <c r="F12">
-        <v>5.224451982200833</v>
+        <v>11.42367118283289</v>
       </c>
       <c r="G12">
-        <v>0.002459256294719139</v>
+        <v>0.0007138060028147669</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3921586130541073</v>
+        <v>1.132740229305966</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.190777171755826</v>
+        <v>6.470220159938776</v>
       </c>
       <c r="C13">
-        <v>0.5058859060128498</v>
+        <v>1.771697681536807</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1320453180642396</v>
+        <v>0.1090662379401763</v>
       </c>
       <c r="F13">
-        <v>5.211185365516997</v>
+        <v>11.35049110514393</v>
       </c>
       <c r="G13">
-        <v>0.002459638267683823</v>
+        <v>0.000714688048175649</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3907516231178647</v>
+        <v>1.125194329424119</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.163181652901869</v>
+        <v>6.329512233151149</v>
       </c>
       <c r="C14">
-        <v>0.4982469726407999</v>
+        <v>1.732075489239833</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1327716111858948</v>
+        <v>0.1048877473845771</v>
       </c>
       <c r="F14">
-        <v>5.167983575652329</v>
+        <v>11.11375754292339</v>
       </c>
       <c r="G14">
-        <v>0.00246088928930326</v>
+        <v>0.0007175570883505761</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.386166950789061</v>
+        <v>1.100795951593597</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.146308753543678</v>
+        <v>6.244037941474232</v>
       </c>
       <c r="C15">
-        <v>0.4935746586553478</v>
+        <v>1.708024294335814</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1332215833994219</v>
+        <v>0.1023879509268255</v>
       </c>
       <c r="F15">
-        <v>5.141569793169367</v>
+        <v>10.97018076308353</v>
       </c>
       <c r="G15">
-        <v>0.002461659671458791</v>
+        <v>0.000719309034033308</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3833616154739445</v>
+        <v>1.086007575374055</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.050075325409296</v>
+        <v>5.764243455674375</v>
       </c>
       <c r="C16">
-        <v>0.466901791995042</v>
+        <v>1.573257236575103</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1358779600944544</v>
+        <v>0.08889179013481296</v>
       </c>
       <c r="F16">
-        <v>4.990936855613626</v>
+        <v>10.16746609935157</v>
       </c>
       <c r="G16">
-        <v>0.002466137358033135</v>
+        <v>0.0007292786942908405</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3673286258045607</v>
+        <v>1.003451407420471</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.991444108048711</v>
+        <v>5.477948039008311</v>
       </c>
       <c r="C17">
-        <v>0.4506287888792144</v>
+        <v>1.493027451826492</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1375765780340537</v>
+        <v>0.08126916704541998</v>
       </c>
       <c r="F17">
-        <v>4.899171812083154</v>
+        <v>9.691110049036098</v>
       </c>
       <c r="G17">
-        <v>0.002468940618267525</v>
+        <v>0.000735345250111737</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3575300620856865</v>
+        <v>0.9545564493147367</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.95786816299551</v>
+        <v>5.315908777919958</v>
       </c>
       <c r="C18">
-        <v>0.4413015197220034</v>
+        <v>1.447677312678593</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1385787941106926</v>
+        <v>0.07709672475002449</v>
       </c>
       <c r="F18">
-        <v>4.846622954160694</v>
+        <v>9.42237719380978</v>
       </c>
       <c r="G18">
-        <v>0.002470573758135278</v>
+        <v>0.0007388210649706776</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3519072751802241</v>
+        <v>0.9270034314788234</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.946525052434652</v>
+        <v>5.26146860924058</v>
       </c>
       <c r="C19">
-        <v>0.4381490053089578</v>
+        <v>1.432450349493138</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1389224442939057</v>
+        <v>0.0757178829684122</v>
       </c>
       <c r="F19">
-        <v>4.828870233386766</v>
+        <v>9.332234589981169</v>
       </c>
       <c r="G19">
-        <v>0.002471130286987737</v>
+        <v>0.0007399960026509249</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3500056905572677</v>
+        <v>0.9177660316414631</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.997670232640587</v>
+        <v>5.508145588197578</v>
       </c>
       <c r="C20">
-        <v>0.4523576993031497</v>
+        <v>1.501483513510777</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1373931442027754</v>
+        <v>0.0820580641204387</v>
       </c>
       <c r="F20">
-        <v>4.908916249507229</v>
+        <v>9.741261329611206</v>
       </c>
       <c r="G20">
-        <v>0.002468640057435412</v>
+        <v>0.0007347009516571984</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3585717686587202</v>
+        <v>0.9597008601856771</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.171280832693867</v>
+        <v>6.370690588407911</v>
       </c>
       <c r="C21">
-        <v>0.5004893021941825</v>
+        <v>1.743667209710679</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1325572182949486</v>
+        <v>0.1061024226715652</v>
       </c>
       <c r="F21">
-        <v>5.180662843092591</v>
+        <v>11.18298937421747</v>
       </c>
       <c r="G21">
-        <v>0.002460520980872771</v>
+        <v>0.00071671554544781</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3875129707836606</v>
+        <v>1.107929242993265</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.286090600868647</v>
+        <v>6.965434644815105</v>
       </c>
       <c r="C22">
-        <v>0.5322469400640557</v>
+        <v>1.911442732711976</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1296243778688471</v>
+        <v>0.124404000616309</v>
       </c>
       <c r="F22">
-        <v>5.360426346759709</v>
+        <v>12.18738590946782</v>
       </c>
       <c r="G22">
-        <v>0.002455398185681445</v>
+        <v>0.0007047313485646936</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4065563822430533</v>
+        <v>1.21159772089834</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.224689674028355</v>
+        <v>6.644740662784159</v>
       </c>
       <c r="C23">
-        <v>0.5152692125128624</v>
+        <v>1.820892355081639</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1311686972284765</v>
+        <v>0.1143587731504674</v>
       </c>
       <c r="F23">
-        <v>5.264280719889143</v>
+        <v>11.6447634966554</v>
       </c>
       <c r="G23">
-        <v>0.002458115603369706</v>
+        <v>0.0007111547408823186</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3963801898119641</v>
+        <v>1.155548862029434</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.994854991181228</v>
+        <v>5.49448539187091</v>
       </c>
       <c r="C24">
-        <v>0.4515759708842779</v>
+        <v>1.497658138080567</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1374759947538475</v>
+        <v>0.08170075685643141</v>
       </c>
       <c r="F24">
-        <v>4.904510142253798</v>
+        <v>9.718572108947171</v>
       </c>
       <c r="G24">
-        <v>0.002468775874018332</v>
+        <v>0.0007349922746313531</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.358100780427236</v>
+        <v>0.9573733532117501</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.752548033529877</v>
+        <v>4.351996485366612</v>
       </c>
       <c r="C25">
-        <v>0.3841098247823993</v>
+        <v>1.178713370290154</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.145241762388034</v>
+        <v>0.05439138140880928</v>
       </c>
       <c r="F25">
-        <v>4.525252178146701</v>
+        <v>7.837169825496773</v>
       </c>
       <c r="G25">
-        <v>0.002481070061226843</v>
+        <v>0.0007602219098418497</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3173035326923639</v>
+        <v>0.7648958442059239</v>
       </c>
       <c r="K25">
         <v>0</v>
